--- a/data_output/data_overlap.xlsx
+++ b/data_output/data_overlap.xlsx
@@ -1219,7 +1219,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1903</v>
+        <v>1909</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1904</v>
+        <v>1910</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2520</v>
+        <v>2526</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2855</v>
+        <v>2863</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2856</v>
+        <v>2864</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2857</v>
+        <v>2865</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4085</v>
+        <v>4093</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4086</v>
+        <v>4094</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4087</v>
+        <v>4095</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4181</v>
+        <v>4189</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4182</v>
+        <v>4190</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4664</v>
+        <v>4675</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4665</v>
+        <v>4676</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4666</v>
+        <v>4677</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4762</v>
+        <v>4773</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4763</v>
+        <v>4774</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>5220</v>
+        <v>5231</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>5221</v>
+        <v>5232</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5404</v>
+        <v>5415</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>5405</v>
+        <v>5416</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5469</v>
+        <v>5480</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>5470</v>
+        <v>5481</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>5660</v>
+        <v>5671</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5661</v>
+        <v>5672</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5853</v>
+        <v>5864</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>5854</v>
+        <v>5865</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5983</v>
+        <v>5996</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>5984</v>
+        <v>5997</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>6020</v>
+        <v>6033</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>6021</v>
+        <v>6034</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6022</v>
+        <v>6035</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6223</v>
+        <v>6236</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>6224</v>
+        <v>6237</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>6493</v>
+        <v>6508</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>6494</v>
+        <v>6509</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>6591</v>
+        <v>6606</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>6592</v>
+        <v>6607</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>7313</v>
+        <v>7328</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>7314</v>
+        <v>7329</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>7803</v>
+        <v>7820</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>7804</v>
+        <v>7821</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>

--- a/data_output/data_overlap.xlsx
+++ b/data_output/data_overlap.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1662,10 +1662,10 @@
         <v>43577.58333333334</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>43577.6875</v>
+        <v>43577.625</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1623</v>
+        <v>1767</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Deddi Fitriandi</t>
+          <t>Iwa Maryana</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1624</v>
+        <v>1768</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Deddi Fitriandi</t>
+          <t>Iwa Maryana</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1903,7 +1903,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1767</v>
+        <v>1828</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Iwa Maryana</t>
+          <t>Nana Supriatna</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1922,11 +1922,11 @@
         <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AC1917-0180</t>
+          <t>AC1914-0111</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Bin BIN1001</t>
+          <t>Mixer MXR1008</t>
         </is>
       </c>
       <c r="O21" s="2" t="n">
-        <v>43581.11458333334</v>
+        <v>43563.47916666666</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>43581.15625</v>
+        <v>43563.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1768</v>
+        <v>1829</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Iwa Maryana</t>
+          <t>Nana Supriatna</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1998,11 +1998,11 @@
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2011,16 +2011,16 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AC1914-0115</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2030,22 +2030,22 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>STG</t>
+          <t>Lifting Device LDV1002</t>
         </is>
       </c>
       <c r="O22" s="2" t="n">
-        <v>43581.125</v>
+        <v>43563.47916666666</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>43581.1875</v>
+        <v>43563.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1828</v>
+        <v>1968</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2064,21 +2064,21 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nana Supriatna</t>
+          <t>Riyadi Anwari</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>2019</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>AC1914-0111</t>
+          <t>AC1917-0140</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2111,17 +2111,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Mixer MXR1008</t>
+          <t>Mixer MXR1015</t>
         </is>
       </c>
       <c r="O23" s="2" t="n">
-        <v>43563.47916666666</v>
+        <v>43588</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>43563.5</v>
+        <v>43588.04166666666</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1829</v>
+        <v>1969</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2140,21 +2140,21 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nana Supriatna</t>
+          <t>Riyadi Anwari</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>2019</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2163,16 +2163,16 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>FFT</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>AC1914-0115</t>
+          <t>AB1917-0086</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Lifting Device LDV1002</t>
+          <t>Mesin Ayak MYK1010</t>
         </is>
       </c>
       <c r="O24" s="2" t="n">
-        <v>43563.47916666666</v>
+        <v>43588.03125</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>43563.5</v>
+        <v>43588.07291666666</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>AC1917-0140</t>
+          <t>AC1918-0088</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2263,17 +2263,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Mixer MXR1015</t>
+          <t>Mixer MXR1008</t>
         </is>
       </c>
       <c r="O25" s="2" t="n">
-        <v>43588</v>
+        <v>43588.04166666666</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>43588.04166666666</v>
+        <v>43588.0625</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1969</v>
+        <v>1979</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>FFT</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>AB1917-0086</t>
+          <t>AC1918-0159</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2339,14 +2339,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Mesin Ayak MYK1010</t>
+          <t>Mixer MXR1014</t>
         </is>
       </c>
       <c r="O26" s="2" t="n">
-        <v>43588.03125</v>
+        <v>43592.66666666666</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>43588.07291666666</v>
+        <v>43592.70833333334</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2378,11 +2378,11 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>AC1918-0088</t>
+          <t>AC1919-0036</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2415,14 +2415,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Mixer MXR1008</t>
+          <t>Granulator GRN1007</t>
         </is>
       </c>
       <c r="O27" s="2" t="n">
-        <v>43588.04166666666</v>
+        <v>43592.66666666666</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>43588.0625</v>
+        <v>43592.6875</v>
       </c>
       <c r="Q27" t="n">
         <v>0.5</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1979</v>
+        <v>2077</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2444,21 +2444,21 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Riyadi Anwari</t>
+          <t>misar</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>2019</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>AC1918-0159</t>
+          <t>AC1917-0196</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2491,17 +2491,17 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Mixer MXR1014</t>
+          <t>Mesin Ayak MYK1006</t>
         </is>
       </c>
       <c r="O28" s="2" t="n">
-        <v>43592.66666666666</v>
+        <v>43581.54166666666</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>43592.70833333334</v>
+        <v>43581.5625</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1980</v>
+        <v>2078</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2520,21 +2520,21 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Riyadi Anwari</t>
+          <t>misar</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>2019</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2543,16 +2543,16 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>AC1919-0036</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2562,22 +2562,22 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Granulator GRN1007</t>
+          <t>STG - 5R</t>
         </is>
       </c>
       <c r="O29" s="2" t="n">
-        <v>43592.66666666666</v>
+        <v>43581.54166666666</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>43592.6875</v>
+        <v>43581.58333333334</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2587,30 +2587,30 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2038</v>
+        <v>2277</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>misar</t>
+          <t>Abdul Rachman</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>2019</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2643,17 +2643,17 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>STG</t>
+          <t>Sakit</t>
         </is>
       </c>
       <c r="O30" s="2" t="n">
-        <v>43559.5625</v>
+        <v>43467.58333333334</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>43559.60416666666</v>
+        <v>43467.9375</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2663,30 +2663,30 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2039</v>
+        <v>2278</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>misar</t>
+          <t>Abdul Rachman</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>2019</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2695,16 +2695,16 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>AC1911-0024</t>
+          <t>AB1852-0049</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2714,22 +2714,22 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Electricity</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Panel PNL1001</t>
+          <t>Air Conditioner ACD1002</t>
         </is>
       </c>
       <c r="O31" s="2" t="n">
-        <v>43559.58333333334</v>
+        <v>43467.625</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>43559.59375</v>
+        <v>43467.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2739,30 +2739,30 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2078</v>
+        <v>2484</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>misar</t>
+          <t>Abdul Rachman</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>2019</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2795,17 +2795,17 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>STG - 5R</t>
+          <t>Sakit</t>
         </is>
       </c>
       <c r="O32" s="2" t="n">
-        <v>43581.5625</v>
+        <v>43557.58333333334</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>43581.625</v>
+        <v>43557.9375</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2815,16 +2815,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2079</v>
+        <v>2485</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Utility</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>misar</t>
+          <t>Abdul Rachman</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2834,11 +2834,11 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2847,16 +2847,16 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>AC1916-0096</t>
+          <t>AB1913-0092</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2866,22 +2866,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Mesin Ayak MYK1011</t>
+          <t>Air Conditioner ACD1162</t>
         </is>
       </c>
       <c r="O33" s="2" t="n">
-        <v>43581.58333333334</v>
+        <v>43557.60416666666</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>43581.625</v>
+        <v>43557.63541666666</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2277</v>
+        <v>2619</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2907,10 +2907,10 @@
         <v>2019</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2919,15 +2919,15 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2937,27 +2937,27 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Sakit</t>
+          <t>STG - Sosialisasi IBPR</t>
         </is>
       </c>
       <c r="O34" s="2" t="n">
-        <v>43467.58333333334</v>
+        <v>43609.58333333334</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>43467.9375</v>
+        <v>43609.64583333334</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2278</v>
+        <v>2620</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2983,14 +2983,14 @@
         <v>2019</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>AB1852-0049</t>
+          <t>AB1921-0110</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3023,17 +3023,17 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1002</t>
+          <t>Air Conditioner ACD1130</t>
         </is>
       </c>
       <c r="O35" s="2" t="n">
-        <v>43467.625</v>
+        <v>43609.60416666666</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>43467.75</v>
+        <v>43609.64583333334</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>2483</v>
+        <v>2811</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3052,64 +3052,64 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Abdul Rachman</t>
+          <t>Abdul Rahman</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>2019</v>
       </c>
       <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PMT</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>AB1901-0015</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Air Handling</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Air Conditioner ACD1016</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>43467.27083333334</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>43467.35416666666</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Unplanned</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>AZ</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Sakit</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>43557.58333333334</v>
-      </c>
-      <c r="P36" s="2" t="n">
-        <v>43557.9375</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>8.5</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2484</v>
+        <v>2812</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3128,21 +3128,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Abdul Rachman</t>
+          <t>Abdul Rahman</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>2019</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3151,16 +3151,16 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>AB1913-0092</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3170,22 +3170,22 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1162</t>
+          <t>STG - Total Clean Out</t>
         </is>
       </c>
       <c r="O37" s="2" t="n">
-        <v>43557.60416666666</v>
+        <v>43467.27083333334</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>43557.63541666666</v>
+        <v>43467.41666666666</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2802</v>
+        <v>2813</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>AB1901-0015</t>
+          <t>AB1852-0051</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3251,17 +3251,17 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1016</t>
+          <t>Air Conditioner ACD1005</t>
         </is>
       </c>
       <c r="O38" s="2" t="n">
-        <v>43467.27083333334</v>
+        <v>43467.35416666666</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>43467.35416666666</v>
+        <v>43467.39583333334</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2803</v>
+        <v>3016</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3287,10 +3287,10 @@
         <v>2019</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3327,17 +3327,17 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>STG - Total Clean Out</t>
+          <t>STG - 5R</t>
         </is>
       </c>
       <c r="O39" s="2" t="n">
-        <v>43467.27083333334</v>
+        <v>43556.57638888889</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>43467.41666666666</v>
+        <v>43556.61805555555</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2804</v>
+        <v>3017</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3363,14 +3363,14 @@
         <v>2019</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>AB1852-0051</t>
+          <t>AB1913-0051</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3403,17 +3403,17 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1005</t>
+          <t>Air Conditioner ACD1023</t>
         </is>
       </c>
       <c r="O40" s="2" t="n">
-        <v>43467.35416666666</v>
+        <v>43556.59375</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>43467.39583333334</v>
+        <v>43556.67708333334</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3007</v>
+        <v>3022</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3439,14 +3439,14 @@
         <v>2019</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3479,17 +3479,17 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>STG - 5R</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="O41" s="2" t="n">
-        <v>43556.57638888889</v>
+        <v>43557.58333333334</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>43556.61805555555</v>
+        <v>43557.9375</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3008</v>
+        <v>3023</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>AB1913-0051</t>
+          <t>AB1913-0094</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3550,22 +3550,22 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>Air handling</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1023</t>
+          <t>Dehumidifier DHM1003</t>
         </is>
       </c>
       <c r="O42" s="2" t="n">
-        <v>43556.59375</v>
+        <v>43557.60416666666</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>43556.67708333334</v>
+        <v>43557.625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3013</v>
+        <v>3115</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3591,14 +3591,14 @@
         <v>2019</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3607,11 +3607,11 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3631,14 +3631,14 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>Sakit</t>
         </is>
       </c>
       <c r="O43" s="2" t="n">
-        <v>43557.58333333334</v>
+        <v>43599.25</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>43557.9375</v>
+        <v>43599.60416666666</v>
       </c>
       <c r="Q43" t="n">
         <v>8.5</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3014</v>
+        <v>3116</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3667,10 +3667,10 @@
         <v>2019</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>AB1913-0094</t>
+          <t>AB1919-0086</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3702,22 +3702,22 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Air handling</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Dehumidifier DHM1003</t>
+          <t>Air Conditioner ACD1036</t>
         </is>
       </c>
       <c r="O44" s="2" t="n">
-        <v>43557.60416666666</v>
+        <v>43599.26041666666</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>43557.625</v>
+        <v>43599.39583333334</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3321</v>
+        <v>3136</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3736,26 +3736,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Abdul Rosid</t>
+          <t>Abdul Rahman</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>2019</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3763,37 +3763,37 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>AB1901-0015</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1016</t>
+          <t>STG - Sosialisasi IBPR</t>
         </is>
       </c>
       <c r="O45" s="2" t="n">
-        <v>43467.27083333334</v>
+        <v>43609.58333333334</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>43467.35416666666</v>
+        <v>43609.64583333334</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3322</v>
+        <v>3137</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3812,39 +3812,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Abdul Rosid</t>
+          <t>Abdul Rahman</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>2019</v>
       </c>
       <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>21</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="F46" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AB1921-0117</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3854,22 +3854,22 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air handling</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>STG - Total Clean Out</t>
+          <t>Dehumidifier DHM1009</t>
         </is>
       </c>
       <c r="O46" s="2" t="n">
-        <v>43467.27083333334</v>
+        <v>43609.625</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>43467.41666666666</v>
+        <v>43609.71875</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3323</v>
+        <v>3335</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>AB1852-0051</t>
+          <t>AB1901-0015</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3935,17 +3935,17 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1005</t>
+          <t>Air Conditioner ACD1016</t>
         </is>
       </c>
       <c r="O47" s="2" t="n">
+        <v>43467.27083333334</v>
+      </c>
+      <c r="P47" s="2" t="n">
         <v>43467.35416666666</v>
       </c>
-      <c r="P47" s="2" t="n">
-        <v>43467.39583333334</v>
-      </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3939</v>
+        <v>3336</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adli Rizky Hermayadhi</t>
+          <t>Abdul Rosid</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>AB1904-0092</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4006,22 +4006,22 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Waste water treatment</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Aerator ART1010</t>
+          <t>STG - Total Clean Out</t>
         </is>
       </c>
       <c r="O48" s="2" t="n">
-        <v>43497.57291666666</v>
+        <v>43467.27083333334</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>43497.60416666666</v>
+        <v>43467.41666666666</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3940</v>
+        <v>3337</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Adli Rizky Hermayadhi</t>
+          <t>Abdul Rosid</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -4063,16 +4063,16 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AB1852-0051</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4082,22 +4082,22 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Cuti - IMP</t>
+          <t>Air Conditioner ACD1005</t>
         </is>
       </c>
       <c r="O49" s="2" t="n">
-        <v>43497.58333333334</v>
+        <v>43467.35416666666</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>43497.66666666666</v>
+        <v>43467.39583333334</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4276</v>
+        <v>3955</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4116,21 +4116,21 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Alpiansyah</t>
+          <t>Adli Rizky Hermayadhi</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>AB1845-0063</t>
+          <t>AB1904-0092</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4158,22 +4158,22 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>Waste water treatment</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1015</t>
+          <t>Aerator ART1010</t>
         </is>
       </c>
       <c r="O50" s="2" t="n">
-        <v>43416.25</v>
+        <v>43497.57291666666</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>43416.375</v>
+        <v>43497.60416666666</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4277</v>
+        <v>3956</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4192,21 +4192,21 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alpiansyah</t>
+          <t>Adli Rizky Hermayadhi</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4215,11 +4215,11 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>STG - FIND 2018</t>
+          <t>Cuti - IMP</t>
         </is>
       </c>
       <c r="O51" s="2" t="n">
-        <v>43416.35416666666</v>
+        <v>43497.58333333334</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>43416.54166666666</v>
+        <v>43497.66666666666</v>
       </c>
       <c r="Q51" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4278</v>
+        <v>4298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4295,12 +4295,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>AC1846-0024</t>
+          <t>AB1845-0063</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4315,17 +4315,17 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1004</t>
+          <t>Air Conditioner ACD1015</t>
         </is>
       </c>
       <c r="O52" s="2" t="n">
+        <v>43416.25</v>
+      </c>
+      <c r="P52" s="2" t="n">
         <v>43416.375</v>
       </c>
-      <c r="P52" s="2" t="n">
-        <v>43416.38541666666</v>
-      </c>
       <c r="Q52" t="n">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>5509</v>
+        <v>4299</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4344,21 +4344,21 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Dede Sulaeman</t>
+          <t>Alpiansyah</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>2018</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4371,12 +4371,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>AB1845-0063</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4386,22 +4386,22 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1015</t>
+          <t>STG - FIND 2018</t>
         </is>
       </c>
       <c r="O53" s="2" t="n">
-        <v>43416.25</v>
+        <v>43416.35416666666</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>43416.375</v>
+        <v>43416.54166666666</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>5510</v>
+        <v>4300</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4420,21 +4420,21 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dede Sulaeman</t>
+          <t>Alpiansyah</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>2018</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AC1846-0024</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4462,22 +4462,22 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>STG - FIND 2018</t>
+          <t>Air Conditioner ACD1004</t>
         </is>
       </c>
       <c r="O54" s="2" t="n">
-        <v>43416.35416666666</v>
+        <v>43416.375</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>43416.54166666666</v>
+        <v>43416.38541666666</v>
       </c>
       <c r="Q54" t="n">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>5511</v>
+        <v>5359</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4496,17 +4496,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dede Sulaeman</t>
+          <t>Angga Muhamad Syukur</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -4523,12 +4523,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>AC1846-0026</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4538,22 +4538,22 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1006</t>
+          <t>STG-Repair Alat Lab</t>
         </is>
       </c>
       <c r="O55" s="2" t="n">
-        <v>43416.41666666666</v>
+        <v>43584.45833333334</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>43416.4375</v>
+        <v>43584.54166666666</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>5605</v>
+        <v>5360</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4572,21 +4572,21 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dede Sulaeman</t>
+          <t>Angga Muhamad Syukur</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>2019</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4595,16 +4595,16 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>AB1852-0055</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4614,22 +4614,22 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1020</t>
+          <t>Cuti-IMP Akhir</t>
         </is>
       </c>
       <c r="O56" s="2" t="n">
-        <v>43467.25</v>
+        <v>43584.52083333334</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>43467.41666666666</v>
+        <v>43584.60416666666</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>5606</v>
+        <v>5448</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4648,26 +4648,26 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dede Sulaeman</t>
+          <t>Angga Muhamad Syukur</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>2019</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4685,27 +4685,27 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>STG - Total Clean Out</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="O57" s="2" t="n">
-        <v>43467.27083333334</v>
+        <v>43614.58333333334</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>43467.41666666666</v>
+        <v>43614.9375</v>
       </c>
       <c r="Q57" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>6095</v>
+        <v>5449</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4724,21 +4724,21 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Heriady</t>
+          <t>Angga Muhamad Syukur</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4747,41 +4747,41 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>AC1846-0013</t>
+          <t>AB1921-0200</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Material handling</t>
+          <t>Air handling</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Forklift FKL1005</t>
+          <t>Dust Collector DCL1002</t>
         </is>
       </c>
       <c r="O58" s="2" t="n">
-        <v>43416.34375</v>
+        <v>43614.59375</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>43416.42708333334</v>
+        <v>43614.63541666666</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>6096</v>
+        <v>5546</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4800,21 +4800,21 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Heriady</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>2018</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AB1845-0063</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4842,22 +4842,22 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>STG - Supervisi relokasi reachtruck</t>
+          <t>Air Conditioner ACD1015</t>
         </is>
       </c>
       <c r="O59" s="2" t="n">
+        <v>43416.25</v>
+      </c>
+      <c r="P59" s="2" t="n">
         <v>43416.375</v>
       </c>
-      <c r="P59" s="2" t="n">
-        <v>43416.58333333334</v>
-      </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>6097</v>
+        <v>5547</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4876,21 +4876,21 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Heriady</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>2018</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>AC1846-0072</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4918,22 +4918,22 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1118</t>
+          <t>STG - FIND 2018</t>
         </is>
       </c>
       <c r="O60" s="2" t="n">
-        <v>43416.4375</v>
+        <v>43416.35416666666</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>43416.48958333334</v>
+        <v>43416.54166666666</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>6193</v>
+        <v>5548</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4952,21 +4952,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Heriady</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4975,16 +4975,16 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>AB1852-0053</t>
+          <t>AC1846-0026</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4999,17 +4999,17 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1017</t>
+          <t>Air Conditioner ACD1006</t>
         </is>
       </c>
       <c r="O61" s="2" t="n">
-        <v>43467.625</v>
+        <v>43416.41666666666</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>43467.72916666666</v>
+        <v>43416.4375</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>6194</v>
+        <v>5642</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5028,21 +5028,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Heriady</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>2019</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5051,16 +5051,16 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AB1852-0055</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5070,22 +5070,22 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>STG - Total Clean Out</t>
+          <t>Air Conditioner ACD1020</t>
         </is>
       </c>
       <c r="O62" s="2" t="n">
-        <v>43467.625</v>
+        <v>43467.25</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>43467.64583333334</v>
+        <v>43467.41666666666</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>6656</v>
+        <v>5643</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5104,21 +5104,21 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>M Gufrans Iqbal G</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>2019</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>AC1901-0030</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5146,22 +5146,22 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Waste water treatment</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Aerator ART1004</t>
+          <t>STG - Total Clean Out</t>
         </is>
       </c>
       <c r="O63" s="2" t="n">
-        <v>43468.4375</v>
+        <v>43467.27083333334</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>43468.5625</v>
+        <v>43467.41666666666</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6657</v>
+        <v>6032</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5180,17 +5180,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>M Gufrans Iqbal G</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>2019</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5217,27 +5217,27 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>STG - Sosialisasi IBPR</t>
         </is>
       </c>
       <c r="O64" s="2" t="n">
-        <v>43468.54166666666</v>
+        <v>43609.58333333334</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>43468.625</v>
+        <v>43609.64583333334</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>6840</v>
+        <v>6033</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5256,21 +5256,21 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>M Gufrans Iqbal G</t>
+          <t>Dede Sulaeman</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>2019</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5279,16 +5279,16 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AB1921-0110</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5298,22 +5298,22 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>Air Conditioner ACD1130</t>
         </is>
       </c>
       <c r="O65" s="2" t="n">
-        <v>43559.91666666666</v>
+        <v>43609.60416666666</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>43589.27083333334</v>
+        <v>43609.64583333334</v>
       </c>
       <c r="Q65" t="n">
-        <v>704.5</v>
+        <v>1</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6841</v>
+        <v>6139</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5332,39 +5332,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>M Gufrans Iqbal G</t>
+          <t>Heriady</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E66" t="n">
+        <v>11</v>
+      </c>
+      <c r="F66" t="n">
+        <v>46</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>4</v>
       </c>
-      <c r="F66" t="n">
-        <v>15</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>AB1915-0005</t>
+          <t>AC1846-0013</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5374,22 +5374,22 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>Material handling</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1095</t>
+          <t>Forklift FKL1005</t>
         </is>
       </c>
       <c r="O66" s="2" t="n">
-        <v>43565.26041666666</v>
+        <v>43416.34375</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>43565.40625</v>
+        <v>43416.42708333334</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6905</v>
+        <v>6140</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5408,21 +5408,21 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>M Gufrans Iqbal G</t>
+          <t>Heriady</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5455,17 +5455,17 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>STG - Supervisi relokasi reachtruck</t>
         </is>
       </c>
       <c r="O67" s="2" t="n">
-        <v>43589.91666666666</v>
+        <v>43416.375</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>43620.27083333334</v>
+        <v>43416.58333333334</v>
       </c>
       <c r="Q67" t="n">
-        <v>728.5</v>
+        <v>5</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>6906</v>
+        <v>6141</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5484,21 +5484,21 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M Gufrans Iqbal G</t>
+          <t>Heriady</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>AC1919-0039</t>
+          <t>AC1846-0072</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5531,17 +5531,17 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1129</t>
+          <t>Air Conditioner ACD1118</t>
         </is>
       </c>
       <c r="O68" s="2" t="n">
-        <v>43592.60416666666</v>
+        <v>43416.4375</v>
       </c>
       <c r="P68" s="2" t="n">
-        <v>43592.64583333334</v>
+        <v>43416.48958333334</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>7099</v>
+        <v>6237</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mochammad Romdon</t>
+          <t>Heriady</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>AB1852-0055</t>
+          <t>AB1852-0053</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5607,17 +5607,17 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1020</t>
+          <t>Air Conditioner ACD1017</t>
         </is>
       </c>
       <c r="O69" s="2" t="n">
-        <v>43467.25</v>
+        <v>43467.625</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>43467.41666666666</v>
+        <v>43467.72916666666</v>
       </c>
       <c r="Q69" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>7100</v>
+        <v>6238</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mochammad Romdon</t>
+          <t>Heriady</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5687,13 +5687,13 @@
         </is>
       </c>
       <c r="O70" s="2" t="n">
-        <v>43467.27083333334</v>
+        <v>43467.625</v>
       </c>
       <c r="P70" s="2" t="n">
-        <v>43467.41666666666</v>
+        <v>43467.64583333334</v>
       </c>
       <c r="Q70" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>7292</v>
+        <v>6550</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5712,34 +5712,34 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mochammad Romdon</t>
+          <t>Heriady</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>2019</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5749,27 +5749,27 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>STG - Sosialisasi IBPR</t>
         </is>
       </c>
       <c r="O71" s="2" t="n">
-        <v>43557.58333333334</v>
+        <v>43609.58333333334</v>
       </c>
       <c r="P71" s="2" t="n">
-        <v>43557.9375</v>
+        <v>43609.64583333334</v>
       </c>
       <c r="Q71" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>7293</v>
+        <v>6551</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5788,21 +5788,21 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mochammad Romdon</t>
+          <t>Heriady</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>2019</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5815,37 +5815,37 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>AB1913-0092</t>
+          <t>AC1921-0058</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>Waste water treatment</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1162</t>
+          <t>Blower BLW1005</t>
         </is>
       </c>
       <c r="O72" s="2" t="n">
-        <v>43557.60416666666</v>
+        <v>43609.60416666666</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>43557.63541666666</v>
+        <v>43609.66666666666</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>7424</v>
+        <v>6703</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5864,21 +5864,21 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rahmadhiyanto</t>
+          <t>M Gufrans Iqbal G</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5887,16 +5887,16 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AC1901-0030</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5906,22 +5906,22 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Waste water treatment</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Sakit</t>
+          <t>Aerator ART1004</t>
         </is>
       </c>
       <c r="O73" s="2" t="n">
-        <v>43385.3125</v>
+        <v>43468.4375</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>43385.6875</v>
+        <v>43468.5625</v>
       </c>
       <c r="Q73" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>7425</v>
+        <v>6704</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5940,17 +5940,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Rahmadhiyanto</t>
+          <t>M Gufrans Iqbal G</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -5967,12 +5967,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>AC1841-0274</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5982,22 +5982,22 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1008</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="O74" s="2" t="n">
-        <v>43385.35416666666</v>
+        <v>43468.54166666666</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>43385.41666666666</v>
+        <v>43468.625</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>7461</v>
+        <v>6887</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6016,21 +6016,21 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rahmadhiyanto</t>
+          <t>M Gufrans Iqbal G</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>2019</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6039,16 +6039,16 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>AB1852-0056</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6058,22 +6058,22 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1015</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="O75" s="2" t="n">
-        <v>43467.23958333334</v>
+        <v>43559.91666666666</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>43467.40625</v>
+        <v>43589.27083333334</v>
       </c>
       <c r="Q75" t="n">
-        <v>4</v>
+        <v>704.5</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>7462</v>
+        <v>6888</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6092,21 +6092,21 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rahmadhiyanto</t>
+          <t>M Gufrans Iqbal G</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>2019</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>PMT</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AB1915-0005</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6134,22 +6134,22 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>Air Conditioner ACD1095</t>
         </is>
       </c>
       <c r="O76" s="2" t="n">
-        <v>43467.25</v>
+        <v>43565.26041666666</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>43467.60416666666</v>
+        <v>43565.40625</v>
       </c>
       <c r="Q76" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>7463</v>
+        <v>6952</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6168,21 +6168,21 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rahmadhiyanto</t>
+          <t>M Gufrans Iqbal G</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>2019</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6191,16 +6191,16 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Repair</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>AC1901-0012</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6210,22 +6210,22 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Air Handling</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1024</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="O77" s="2" t="n">
-        <v>43467.4375</v>
+        <v>43589.91666666666</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>43467.5</v>
+        <v>43620.27083333334</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.5</v>
+        <v>728.5</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>7936</v>
+        <v>6953</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6244,21 +6244,21 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rohmat</t>
+          <t>M Gufrans Iqbal G</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>2019</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6271,12 +6271,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AC1919-0039</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6286,22 +6286,22 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>Air Conditioner ACD1129</t>
         </is>
       </c>
       <c r="O78" s="2" t="n">
-        <v>43525.58333333334</v>
+        <v>43592.60416666666</v>
       </c>
       <c r="P78" s="2" t="n">
-        <v>43525.9375</v>
+        <v>43592.64583333334</v>
       </c>
       <c r="Q78" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>7937</v>
+        <v>7152</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6320,21 +6320,21 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Rohmat</t>
+          <t>Mochammad Romdon</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>2019</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>AB1908-0077</t>
+          <t>AB1852-0055</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6367,17 +6367,17 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1047</t>
+          <t>Air Conditioner ACD1020</t>
         </is>
       </c>
       <c r="O79" s="2" t="n">
-        <v>43525.65625</v>
+        <v>43467.25</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>43525.73958333334</v>
+        <v>43467.41666666666</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>8034</v>
+        <v>7153</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6396,21 +6396,21 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rohmat</t>
+          <t>Mochammad Romdon</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>2019</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>5</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Unplanned</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6443,17 +6443,17 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Sakit</t>
+          <t>STG - Total Clean Out</t>
         </is>
       </c>
       <c r="O80" s="2" t="n">
-        <v>43557.25</v>
+        <v>43467.27083333334</v>
       </c>
       <c r="P80" s="2" t="n">
-        <v>43557.60416666666</v>
+        <v>43467.41666666666</v>
       </c>
       <c r="Q80" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>8035</v>
+        <v>7346</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6472,21 +6472,21 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rohmat</t>
+          <t>Mochammad Romdon</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>2019</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6495,16 +6495,16 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>AB1914-0005</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6514,22 +6514,22 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Compressed air</t>
+          <t>others</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Kompresor KMP1015</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="O81" s="2" t="n">
-        <v>43557.29166666666</v>
+        <v>43557.58333333334</v>
       </c>
       <c r="P81" s="2" t="n">
-        <v>43557.3125</v>
+        <v>43557.9375</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>8770</v>
+        <v>7347</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6548,21 +6548,21 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wahyudin</t>
+          <t>Mochammad Romdon</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>2019</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>AB1852-0050</t>
+          <t>AB1913-0092</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6595,17 +6595,17 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Air Conditioner ACD1003</t>
+          <t>Air Conditioner ACD1162</t>
         </is>
       </c>
       <c r="O82" s="2" t="n">
-        <v>43467.625</v>
+        <v>43557.60416666666</v>
       </c>
       <c r="P82" s="2" t="n">
-        <v>43467.75</v>
+        <v>43557.63541666666</v>
       </c>
       <c r="Q82" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>8771</v>
+        <v>7480</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6624,21 +6624,21 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wahyudin</t>
+          <t>Rahmadhiyanto</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6647,11 +6647,11 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Unplanned</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6671,17 +6671,17 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>STG - Total Clean Out</t>
+          <t>Sakit</t>
         </is>
       </c>
       <c r="O83" s="2" t="n">
-        <v>43467.625</v>
+        <v>43385.3125</v>
       </c>
       <c r="P83" s="2" t="n">
-        <v>43467.64583333334</v>
+        <v>43385.6875</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>9264</v>
+        <v>7481</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6700,21 +6700,21 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wira Ardiansyah</t>
+          <t>Rahmadhiyanto</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6727,12 +6727,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>Repair</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>AB1852-0063</t>
+          <t>AC1841-0274</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6742,22 +6742,22 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Air handling</t>
+          <t>Air Handling</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Dehumidifier DHM1004</t>
+          <t>Air Conditioner ACD1008</t>
         </is>
       </c>
       <c r="O84" s="2" t="n">
-        <v>43468.25</v>
+        <v>43385.35416666666</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>43468.40625</v>
+        <v>43385.41666666666</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>9265</v>
+        <v>7517</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6776,66 +6776,1130 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>Rahmadhiyanto</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PMT</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>AB1852-0056</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Air Handling</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Air Conditioner ACD1015</t>
+        </is>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>43467.23958333334</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>43467.40625</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>7518</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Rahmadhiyanto</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Unplanned</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>43467.25</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>43467.60416666666</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>7519</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rahmadhiyanto</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Repair</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>AC1901-0012</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Air Handling</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Air Conditioner ACD1024</t>
+        </is>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>43467.4375</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>43467.5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>7996</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rohmat</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Unplanned</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>43525.58333333334</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>43525.9375</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>7997</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rohmat</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PMT</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>AB1908-0077</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Air Handling</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Air Conditioner ACD1047</t>
+        </is>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>43525.65625</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>43525.73958333334</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>8094</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rohmat</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Unplanned</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Sakit</t>
+        </is>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>43557.25</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>43557.60416666666</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>8095</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rohmat</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>AB1914-0005</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Compressed air</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Kompresor KMP1015</t>
+        </is>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>43557.29166666666</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>43557.3125</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>8488</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sapari</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>18</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>43529.25</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>43529.625</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>9</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>8489</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sapari</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PMT</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>AB1910-0009</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Air Handling</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Air Conditioner ACD1037</t>
+        </is>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>43529.26041666666</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>43529.375</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>8663</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sapari</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>STG - Sosialisasi IBPR</t>
+        </is>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>43609.58333333334</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>43609.64583333334</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>8664</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sapari</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>21</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Repair</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>AC1921-0058</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Waste water treatment</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Blower BLW1005</t>
+        </is>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>43609.60416666666</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>43609.66666666666</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>8835</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Wahyudin</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PMT</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>AB1852-0050</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Air Handling</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Air Conditioner ACD1003</t>
+        </is>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>43467.625</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>43467.75</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>8836</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Wahyudin</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>STG - Total Clean Out</t>
+        </is>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>43467.625</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>43467.64583333334</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>9330</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Wira Ardiansyah</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="D98" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PMT</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>AB1852-0063</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Air handling</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Dehumidifier DHM1004</t>
+        </is>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>43468.25</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>43468.40625</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>9331</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Wira Ardiansyah</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E99" t="n">
         <v>2</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F99" t="n">
         <v>9</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Friday</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>AZ</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>others</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>STG - IPAL</t>
         </is>
       </c>
-      <c r="O85" s="2" t="n">
+      <c r="O99" s="2" t="n">
         <v>43468.36458333334</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P99" s="2" t="n">
         <v>43468.40625</v>
       </c>
-      <c r="Q85" t="n">
-        <v>1</v>
-      </c>
-      <c r="R85" t="inlineStr">
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="inlineStr">
         <is>
           <t>overlap</t>
         </is>
